--- a/data/hotels_by_city/Houston/Houston_shard_323.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_323.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56427-d7890381-Reviews-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-E-Pasadena.h10555169.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,165 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r481459766-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>7890381</t>
+  </si>
+  <si>
+    <t>481459766</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>One night stay -large room with comfy bed</t>
+  </si>
+  <si>
+    <t>Stayed one night with a group of friends in 3 different room for a conference. The room was very roomy with comfy beds and a big nice bathroom.  I was impressed with the room for the price.  Free breakfast was okay.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r474811553-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>474811553</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>Stayed here for a weekend visit with family. Loved the clean and modern decor. The hallways had a good smell too. The room was large and comfortable. The bed was so comfortable! I love it when a hotel room has movie channels and this place has HBO and Cinemax. The kitchenette was a plus, used the microwave and fridge. The only constructive feedback would be in regards to the breakfast, the eggs weren't too appetizing. Also, don't buy the frozen meals in the lobby, go to a grocery store and stock up :) MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HIExPasadenaManager, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a weekend visit with family. Loved the clean and modern decor. The hallways had a good smell too. The room was large and comfortable. The bed was so comfortable! I love it when a hotel room has movie channels and this place has HBO and Cinemax. The kitchenette was a plus, used the microwave and fridge. The only constructive feedback would be in regards to the breakfast, the eggs weren't too appetizing. Also, don't buy the frozen meals in the lobby, go to a grocery store and stock up :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r468680682-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>468680682</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a newer more modern Holiday Inn Express. Loved the layout of the room. Very clean property, always felt safe. The first morning we went down for breakfast they were already out of cinnamon rolls, I asked one of the staff (and I am sure he wasn't food service staff) he said there would be more. He left and went to the store and got cinnamon rolls they weren't the wonderful Holiday Inn cinnamon rolls but what great customer service to go out of his way to go get something a customer wanted.  I know I am going to have to get up earlier from now on to get the Holiday Inn cinnamon rolls because they were already out the second morning also, but I didn't ask for any that morning. There is a safe in the closet that was greatly appreciated. There are 2 usb charging ports with the electrical outlet over each night stand and one built into the lamp on the work desk. They had paper plates, bowls and plasticware in the kitchen cabinet. Great property!!! If I ever travel to Pasadena again I will be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a newer more modern Holiday Inn Express. Loved the layout of the room. Very clean property, always felt safe. The first morning we went down for breakfast they were already out of cinnamon rolls, I asked one of the staff (and I am sure he wasn't food service staff) he said there would be more. He left and went to the store and got cinnamon rolls they weren't the wonderful Holiday Inn cinnamon rolls but what great customer service to go out of his way to go get something a customer wanted.  I know I am going to have to get up earlier from now on to get the Holiday Inn cinnamon rolls because they were already out the second morning also, but I didn't ask for any that morning. There is a safe in the closet that was greatly appreciated. There are 2 usb charging ports with the electrical outlet over each night stand and one built into the lamp on the work desk. They had paper plates, bowls and plasticware in the kitchen cabinet. Great property!!! If I ever travel to Pasadena again I will be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r451501707-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>451501707</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Extremely clean and friendly</t>
+  </si>
+  <si>
+    <t>Great experience! Much higher end than expected.Clean, spacious rooms and friendly, helpful staff. Breakfast buffet leaves a bit to be desired, may want to keep an eye on freshness of breads and baked goods, but otherwise an outstanding value for our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>HIExPasadenaManager, Front Office Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Great experience! Much higher end than expected.Clean, spacious rooms and friendly, helpful staff. Breakfast buffet leaves a bit to be desired, may want to keep an eye on freshness of breads and baked goods, but otherwise an outstanding value for our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r444891002-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>444891002</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Spacious and Clean</t>
+  </si>
+  <si>
+    <t>I checked into my room after being on road all night - front desk was quick and efficient. My room was so big and spacious and clean. The mini fridge and freezer were perfect size along with microwave. I went back to the front and they have lots of items for sale at reasonable prices and grabbed me a frozen dinner for a whole $5.00 - which was so worth it. My room was on the first floor and was quiet. I did grab breakfast in the morning - it was the traditional continental. But good nonetheless. Came back to my room to find it all nice and cleaned and everything replenished. The bathroom was very big along with the shower too. I will definitely choose this hotel again when I am back in town. It was easy to find and near lots of local stores.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kim Z, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>I checked into my room after being on road all night - front desk was quick and efficient. My room was so big and spacious and clean. The mini fridge and freezer were perfect size along with microwave. I went back to the front and they have lots of items for sale at reasonable prices and grabbed me a frozen dinner for a whole $5.00 - which was so worth it. My room was on the first floor and was quiet. I did grab breakfast in the morning - it was the traditional continental. But good nonetheless. Came back to my room to find it all nice and cleaned and everything replenished. The bathroom was very big along with the shower too. I will definitely choose this hotel again when I am back in town. It was easy to find and near lots of local stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r429694565-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>429694565</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Plenty of Space and Very Clean! A Great Stay</t>
+  </si>
+  <si>
+    <t>We had a great stay which was for a softball tournament. Clean, everything smelled nice and clean, comfortable beds, great housekeeping. Lots of room, big TV, the place looks new and is well designed. Our room had a separate counter top &amp; sink for making things in the microwave/coffee so you aren't having to use the bathroom sink for everything. Very well put together and great use of space.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Kim Z, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>We had a great stay which was for a softball tournament. Clean, everything smelled nice and clean, comfortable beds, great housekeeping. Lots of room, big TV, the place looks new and is well designed. Our room had a separate counter top &amp; sink for making things in the microwave/coffee so you aren't having to use the bathroom sink for everything. Very well put together and great use of space.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +697,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +729,461 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_323.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_323.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r573733649-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>56427</t>
+  </si>
+  <si>
+    <t>7890381</t>
+  </si>
+  <si>
+    <t>573733649</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Overnight stop</t>
+  </si>
+  <si>
+    <t>Not often we have a weekend work meeting, but did on a Saturday.  Drove in from San Antonio on Friday.  Very easy to find; check-in through pleasant staff; then got a great night's sleep.  Continental breakfast hit the spot the next morning.  Couldn't hear toll traffic even as close as it existed.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r536472038-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>536472038</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>After paying over 500.00 for a 2 night stay I have to say I am extremely disappointed.I am a IGH Platinum Elite member and this is the first hotel that didn’t offer a gift bag on check in. The halls leading to the room were filthy.The room was not clean with hairs in the shower, stains on the floor and no coffee or cups in the room.The breakfast was sub par to put it mildly.For that amount of money they could do a much better job cleaning. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>HIE P, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>After paying over 500.00 for a 2 night stay I have to say I am extremely disappointed.I am a IGH Platinum Elite member and this is the first hotel that didn’t offer a gift bag on check in. The halls leading to the room were filthy.The room was not clean with hairs in the shower, stains on the floor and no coffee or cups in the room.The breakfast was sub par to put it mildly.For that amount of money they could do a much better job cleaning. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r481459766-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
-    <t>56427</t>
-  </si>
-  <si>
-    <t>7890381</t>
-  </si>
-  <si>
     <t>481459766</t>
   </si>
   <si>
@@ -225,6 +273,54 @@
     <t>This is a newer more modern Holiday Inn Express. Loved the layout of the room. Very clean property, always felt safe. The first morning we went down for breakfast they were already out of cinnamon rolls, I asked one of the staff (and I am sure he wasn't food service staff) he said there would be more. He left and went to the store and got cinnamon rolls they weren't the wonderful Holiday Inn cinnamon rolls but what great customer service to go out of his way to go get something a customer wanted.  I know I am going to have to get up earlier from now on to get the Holiday Inn cinnamon rolls because they were already out the second morning also, but I didn't ask for any that morning. There is a safe in the closet that was greatly appreciated. There are 2 usb charging ports with the electrical outlet over each night stand and one built into the lamp on the work desk. They had paper plates, bowls and plasticware in the kitchen cabinet. Great property!!! If I ever travel to Pasadena again I will be staying here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r459510494-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>459510494</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Spacious Guest Rooms</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  It has spacious guest rooms.  The rooms were clean.  The bed was comfortable.  It has a nice fitness center.  Breakfast has both hot items and continental.  Free Wi-Fi.  Internet was good.  No airport shuttle service.  It is about 35 minute drive from downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIExPasadenaManager, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new.  It has spacious guest rooms.  The rooms were clean.  The bed was comfortable.  It has a nice fitness center.  Breakfast has both hot items and continental.  Free Wi-Fi.  Internet was good.  No airport shuttle service.  It is about 35 minute drive from downtown Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r451729944-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>451729944</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>New!!</t>
+  </si>
+  <si>
+    <t>Did I mention that this hotel is new? While that's usually enough said, there's more. The rooms are huge and clean. I normally don't watch tv, but there is a really huge flatscreen tv on a swivel wall mount, including direct tv. The lobby and breakfast area is huge and neat. There is a new Fairfield Inn next door, where I would normally have stayed, but this holiday inn blew me away. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIExPasadenaManager, Front Office Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Did I mention that this hotel is new? While that's usually enough said, there's more. The rooms are huge and clean. I normally don't watch tv, but there is a really huge flatscreen tv on a swivel wall mount, including direct tv. The lobby and breakfast area is huge and neat. There is a new Fairfield Inn next door, where I would normally have stayed, but this holiday inn blew me away. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r451501707-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
   </si>
   <si>
@@ -243,12 +339,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>HIExPasadenaManager, Front Office Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded January 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 17, 2017</t>
-  </si>
-  <si>
     <t>Great experience! Much higher end than expected.Clean, spacious rooms and friendly, helpful staff. Breakfast buffet leaves a bit to be desired, may want to keep an eye on freshness of breads and baked goods, but otherwise an outstanding value for our stay.More</t>
   </si>
   <si>
@@ -267,9 +357,6 @@
     <t>I checked into my room after being on road all night - front desk was quick and efficient. My room was so big and spacious and clean. The mini fridge and freezer were perfect size along with microwave. I went back to the front and they have lots of items for sale at reasonable prices and grabbed me a frozen dinner for a whole $5.00 - which was so worth it. My room was on the first floor and was quiet. I did grab breakfast in the morning - it was the traditional continental. But good nonetheless. Came back to my room to find it all nice and cleaned and everything replenished. The bathroom was very big along with the shower too. I will definitely choose this hotel again when I am back in town. It was easy to find and near lots of local stores.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Kim Z, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded January 11, 2017</t>
   </si>
   <si>
@@ -304,6 +391,63 @@
   </si>
   <si>
     <t>We had a great stay which was for a softball tournament. Clean, everything smelled nice and clean, comfortable beds, great housekeeping. Lots of room, big TV, the place looks new and is well designed. Our room had a separate counter top &amp; sink for making things in the microwave/coffee so you aren't having to use the bathroom sink for everything. Very well put together and great use of space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r423279503-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>423279503</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express &amp; Suites Houston E - Pasadena was a wonderful hotel.  It's less than a year old and is state of the art.  It was very spacious.  There was a small living room area as well as small kitchen.  The beds were very comfortable.  The staff at the front desk, the housekeepers, and the lady working in the breakfast area were very helpful.  There was an outdoor pool, but had a roof overhead.  We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Kim Z, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>The Holiday Inn Express &amp; Suites Houston E - Pasadena was a wonderful hotel.  It's less than a year old and is state of the art.  It was very spacious.  There was a small living room area as well as small kitchen.  The beds were very comfortable.  The staff at the front desk, the housekeepers, and the lady working in the breakfast area were very helpful.  There was an outdoor pool, but had a roof overhead.  We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56427-d7890381-r404529845-Holiday_Inn_Express_Suites_Houston_E_Pasadena-Pasadena_Texas.html</t>
+  </si>
+  <si>
+    <t>404529845</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Newly Opened</t>
+  </si>
+  <si>
+    <t>I believe this hotel just opened.  It's the most modern of the HIE's I've stayed in.  Almost too modern for my taste.  Regardless, room was fine, bed comfortable.  Usual breakfast items.  Pleasant enough staff.  Outdoor pool and hot tub have underwater lighting that rotates through changing colors.  There's plenty of shaded area available, which is nice in the Houston summer months.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Kim Z, General Manager at Holiday Inn Express &amp; Suites Houston E - Pasadena, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>I believe this hotel just opened.  It's the most modern of the HIE's I've stayed in.  Almost too modern for my taste.  Regardless, room was fine, bed comfortable.  Usual breakfast items.  Pleasant enough staff.  Outdoor pool and hot tub have underwater lighting that rotates through changing colors.  There's plenty of shaded area available, which is nice in the Houston summer months.More</t>
   </si>
 </sst>
 </file>
@@ -838,7 +982,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -847,14 +991,14 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -899,13 +1043,13 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -917,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
         <v>60</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>61</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -939,7 +1083,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -948,35 +1092,35 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
       <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -984,7 +1128,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1027,31 +1171,25 @@
         <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1067,7 +1205,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1076,33 +1214,31 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1111,14 +1247,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>84</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1134,7 +1266,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1143,47 +1275,427 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>93</v>
       </c>
-      <c r="X7" t="s">
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
         <v>94</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="J8" t="s">
         <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64338</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
